--- a/Final Template/SE Project Demo Guidelines and schedule_V-C section.xlsx
+++ b/Final Template/SE Project Demo Guidelines and schedule_V-C section.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sapna\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\My PC\Desktop\se\EmployeeEfficiencyManagement\Final Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{97428B12-D182-486D-BB4B-6F81BB14B66E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68A093E2-2DCC-4B09-B995-FAC75DC6C13B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
+    <workbookView xWindow="5760" yWindow="3276" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SE Project_V-C section" sheetId="1" r:id="rId1"/>
@@ -613,7 +613,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -795,7 +795,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -973,6 +973,12 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1136,7 +1142,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1150,6 +1156,9 @@
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1506,11 +1515,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1914,7 +1923,7 @@
       </c>
     </row>
     <row r="29" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A29" s="2" t="s">
+      <c r="A29" s="7" t="s">
         <v>95</v>
       </c>
     </row>
@@ -1944,7 +1953,7 @@
       </c>
     </row>
     <row r="35" spans="1:1" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A35" s="2" t="s">
+      <c r="A35" s="7" t="s">
         <v>101</v>
       </c>
     </row>
